--- a/plantillaHPV/casosExito161031.xlsx
+++ b/plantillaHPV/casosExito161031.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Buitrago\Downloads\plantillaHPV\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -751,6 +751,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,9 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -829,20 +829,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190013</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>118181</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -861,8 +861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1419225" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,50 +1266,50 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14" t="s">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14" t="s">
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14" t="s">
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14" t="s">
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="15" t="s">
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="15" t="s">
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="16"/>
-      <c r="BN3" s="15" t="s">
+      <c r="BL3" s="17"/>
+      <c r="BM3" s="17"/>
+      <c r="BN3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BO3" s="16"/>
-      <c r="BP3" s="16"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="16"/>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="17" t="s">
+      <c r="BO3" s="17"/>
+      <c r="BP3" s="17"/>
+      <c r="BQ3" s="17"/>
+      <c r="BR3" s="17"/>
+      <c r="BS3" s="17"/>
+      <c r="BT3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       <c r="BS4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="BT4" s="17"/>
+      <c r="BT4" s="18"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1540,14 +1540,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1595,16 +1595,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BS3"/>
+    <mergeCell ref="BT3:BT4"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="AZ3:BA3"/>
     <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BS3"/>
-    <mergeCell ref="BT3:BT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
